--- a/rawdata/totally_raw_data_with_expression.xlsx
+++ b/rawdata/totally_raw_data_with_expression.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\src\StatisticDataAnalysis\rawdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A11F135-45FF-4DDE-89AB-572438AE73C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9677853B-879A-4AD0-A7F1-9FCD785E8D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29610" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="totally_raw_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>date</t>
   </si>
@@ -118,6 +119,129 @@
   </si>
   <si>
     <t>i_critical_rto</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>날짜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1종교통량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>2종교통량</t>
+  </si>
+  <si>
+    <t>3종교통량</t>
+  </si>
+  <si>
+    <t>4종교통량</t>
+  </si>
+  <si>
+    <t>5종교통량</t>
+  </si>
+  <si>
+    <t>6종교통량</t>
+  </si>
+  <si>
+    <t>총교통량</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적확진자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적사망자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적격리해제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적검사자</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적음성</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>위중증환자수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재격리자수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재검사자수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규확진자수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규격리자수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규격리해제자수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규검사자수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규사망자수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>확진자증감률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재격리자증감률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>누적검사자증감률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>검사자확진율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>확진율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명률</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>격리해제율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>위중증환자증감율</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수 설명</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>변수설명</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1075,10 +1199,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC517"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="U487" sqref="U487"/>
+      <selection pane="bottomLeft" sqref="A1:AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -49161,4 +49285,245 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F873120-CF44-4843-93BD-DE6ED38FF30B}">
+  <dimension ref="B1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>